--- a/Village Panchayat/Lalji.xlsx
+++ b/Village Panchayat/Lalji.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -31,6 +31,18 @@
   </si>
   <si>
     <t>Details</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Sir</t>
+  </si>
+  <si>
+    <t>NEFT</t>
+  </si>
+  <si>
+    <t>Paid</t>
   </si>
 </sst>
 </file>
@@ -89,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -98,6 +110,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -380,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,7 +408,7 @@
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -406,62 +421,104 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>45183</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>45189</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>45190</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>45194</v>
+      </c>
+      <c r="B5" s="1">
+        <f>900*3-B2</f>
+        <v>1700</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>45197</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>45199</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>45201</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Village Panchayat/Lalji.xlsx
+++ b/Village Panchayat/Lalji.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,9 @@
         <v>6</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -483,7 +485,9 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -492,7 +496,9 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -501,21 +507,146 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="4">
+        <v>45202</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="4">
+        <v>45204</v>
+      </c>
+      <c r="B10" s="1">
+        <f>900*5</f>
+        <v>4500</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Village Panchayat/Lalji.xlsx
+++ b/Village Panchayat/Lalji.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +537,9 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="4">
+        <v>45232</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>

--- a/Village Panchayat/Lalji.xlsx
+++ b/Village Panchayat/Lalji.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -398,7 +398,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +534,9 @@
         <v>6</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -543,19 +545,32 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="4">
+        <v>45234</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="4">
+        <v>45236</v>
+      </c>
+      <c r="B13" s="1">
+        <f>2700+900</f>
+        <v>3600</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>

--- a/Village Panchayat/Lalji.xlsx
+++ b/Village Panchayat/Lalji.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,9 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="4">
+        <v>45246</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
